--- a/bina_refinery_log.xlsx
+++ b/bina_refinery_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Area 1 - Crude Processing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Top Temperature</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>°C</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-27 16:02:16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bina_refinery_log.xlsx
+++ b/bina_refinery_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,6 +502,1012 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Normal</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:28:20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:28:55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:29:09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:29:29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:29:47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>249</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:29:55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Equipment 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:30:24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>120</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:30:58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:36:43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:38:20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>120</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:38:36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>120</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:46:32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sugar Level</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:46:32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hemoglobin</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:46:51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Calcium Levels</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:47:12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Plelet Counts</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:47:29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Blood Sugar</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:47:29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hcl Concentrion</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>50</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:48:06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Equipment 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wer Level</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>22</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:48:06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Equipment 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Blood Sugar</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:49:42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hemoglobin</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>65</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:49:54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vitamin</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>44</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:50:13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hcl Concentrion</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:50:32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Basic Considerion In</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>44</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:50:32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Blood Sugar</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>100</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:51:54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hemoglobin</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>44</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:51:54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wer Level</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>400</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:52:05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>52</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:52:05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Vitamin D</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>21</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:52:19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Vitamin C</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>44</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:52:19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Calcium</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>44</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2025-05-28 17:52:33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Equipment 4</t>
         </is>
       </c>
     </row>

--- a/bina_refinery_log.xlsx
+++ b/bina_refinery_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,6 +1511,678 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>22</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:42:24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>120</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:45:39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Temperure In</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>200</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:47:20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>120</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:48:54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>200</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:48:54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:48:54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>400</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:49:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Equipment 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Temperure</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>120</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2025-05-29 15:54:49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Temperature Voltage</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>120</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:02:14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Flow Rate</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>50</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:02:14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pressure Current Temperature</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>400</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:02:55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Equipment 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>120</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:07:09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Voltage</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>240</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:07:09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Floor It</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:07:09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>120</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:10:04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>200</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:10:05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DCU</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2025-05-29 16:10:05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>qwerty (ID: 123)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LAB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>120</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:10:39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>dfgh (ID: e67)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LAB</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>120</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:11:13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>dfgh (ID: e67)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LAB</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>200</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:11:13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>dfgh (ID: e67)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LAB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025-05-29 17:11:13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>dfgh (ID: e67)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Equipment 1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
